--- a/4.Project/工作任务清单.xlsx
+++ b/4.Project/工作任务清单.xlsx
@@ -10,14 +10,14 @@
     <sheet name="2016-11" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2016-11'!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2016-11'!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>UI.WPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,10 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,20 +464,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,18 +489,26 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -488,57 +516,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D7">
-    <sortState ref="A2:D9">
+  <autoFilter ref="A1:E7">
+    <sortState ref="A2:E10">
       <sortCondition ref="B1:B7"/>
     </sortState>
   </autoFilter>

--- a/4.Project/工作任务清单.xlsx
+++ b/4.Project/工作任务清单.xlsx
@@ -10,14 +10,14 @@
     <sheet name="2016-11" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2016-11'!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2016-11'!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI.WinForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI.WPF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +68,79 @@
   </si>
   <si>
     <t>服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用异常处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地扩展配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务扩展配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端事务、服务端事务、事务的传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务框架，序列化框架，Web中的服务承载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器、用户名、权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主程序异常弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共对话框、视图、多文档窗体框架、客户端配置画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展配置的本地保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展配置的服务端保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端用于监控的设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时、定期采集数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动下载、更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置画面、资产树的显示、列表显示、插件选择画面、泛型生成画面
+资产引用（添加引用后应当在GlobalAddonList中增加插件）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,11 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,15 +532,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
@@ -489,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -502,30 +571,41 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -536,37 +616,52 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -574,13 +669,49 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E7">
-    <sortState ref="A2:E10">
-      <sortCondition ref="B1:B7"/>
+  <autoFilter ref="A1:E13">
+    <sortState ref="A2:E13">
+      <sortCondition ref="B1:B13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/4.Project/工作任务清单.xlsx
+++ b/4.Project/工作任务清单.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扩展配置的服务端保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端用于监控的设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +137,10 @@
   <si>
     <t>配置画面、资产树的显示、列表显示、插件选择画面、泛型生成画面
 资产引用（添加引用后应当在GlobalAddonList中增加插件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展配置的服务端保存，根据用户、机器等信息获取服务扩展配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/4.Project/工作任务清单.xlsx
+++ b/4.Project/工作任务清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,14 +610,17 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
